--- a/CHATGAME/Assets/StreamingAssets/Excel/dialogue.xlsx
+++ b/CHATGAME/Assets/StreamingAssets/Excel/dialogue.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\one\Desktop\미연시\AI-CHATBOT-GAME\CHATGAME\Assets\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\one\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76466677-7D0C-4627-8C7C-2FDA0176C43B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{878434B2-6368-454F-BECA-3BB9BCA66665}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31695" yWindow="720" windowWidth="22245" windowHeight="13245" xr2:uid="{2CE2283B-12A8-44FA-8C37-8BC2013A442E}"/>
+    <workbookView xWindow="480" yWindow="1710" windowWidth="25545" windowHeight="13245" activeTab="1" xr2:uid="{2CE2283B-12A8-44FA-8C37-8BC2013A442E}"/>
   </bookViews>
   <sheets>
     <sheet name="Dialogue" sheetId="1" r:id="rId1"/>
+    <sheet name="Date" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -44,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="209">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -975,11 +976,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>"다, 다시 한 번 말하지만! 저번에 같이 영화 봤던 거, 배우들의 연기가 좋았던 거지, 네가 옆에 있어서 좋았다거나 그런 게 아니라고!"
-리코의 얼굴이 붉어지면서도, 그녀는 고개를 돌려 눈을 마주치지 않으려 했다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>"다음엔... '라라랜드' 어때? 2016년 작품이야. 난 어릴 때 영화관에서 봤었어. 그냥... 음악도 좋고, 영상미도 뛰어나서... 꼭 같이 보고 싶ㅡ 아니, 그냥 네 영화 지식을 넓히라고 하는 거야, 바보야!"
 리코는 볼이 붉어진 채로 창밖을 바라보며 말했다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1001,11 +997,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>"어릴 때 '그리스'라는 영화를 봤는데... 그때는 몰랐지만 지금 보면 좀 유치하긴 해. 그래도 노래는 괜찮았어."
-리코는 모처럼 풀어진 표정으로 추억에 잠긴 이야기를 한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>"DVD는 연도순으로 배치하라고 말했지? 몇 번을 말해야 알아들어. '쉰들러 리스트'는 1993년, '펄프 픽션'은 1994년이라고, 바보야. "
 리코는 다리를 꼬곤 당신을 한심하단 눈빛으로 내려다본다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1085,18 +1076,8 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>"벌써 시간이 이렇게 됐네… 바보들, 뭐가 그리 신나서 저렇게 뛰어나가는 거야."
-리코는 교문을 향해 우르르 몰려나가는 학생들의 모습을 가만히 바라보고 있다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>"…할 일이 그렇게 없어? 나 구경할 시간에 책 한 글자라도 더 읽던가."
 리코는 당신을 힐끗 쳐다보곤 말한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"…"
-리코는 뺨을 부풀리며 IKA를 뚫어지게 쳐다봤다. 마치 독설을 쏟아낼 준비를 하는 듯한 표정이었다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1154,6 +1135,398 @@
 리코는 어떻게든 당신과 눈을 마주치지 않으려고 애를 쓴다.
 "그리고 오해하지 마! 이건 데, 데이트 같은 게 아니야! 그러니까, 네가 정 바란다면 데이트…여도 괜찮긴 하지만, 그, 그런 의도로 준 표는 아니니까! 그냥, 평범한 동아리 활동이라고!"
 숨이 차도록 쉬지 않고 말을 쏟아내곤, 그대로 홱 돌아서버린다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"어제 '지옥의 묵시록'을 다시 봤거든. 베트남 전쟁을 배경으로 한 영화인데, 확실히 요즘의 멍청한 액션영화들보다 훨씬 조용하면서도 긴장감에 숨도 쉬기 힘들게 만들더라. 그리고 그 과정에서 드러나는 인간의 광기와 전쟁의 부조리함이 어떻게 표현되는지, 그 유명한 대사 '네이팜 냄새. 난 그 냄새가 좋아.' 이 대사가 얼마나 많은..."
+리코의 눈빛이 열정으로 반짝인다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"가끔은 같이 영화관 가는 것도 나쁘지 않을 지도… 호, 혼잣말이야! 신경쓰지 마!"
+리코의 얼굴이 붉어지면서도, 그녀는 고개를 돌려 눈을 마주치지 않으려 했다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"다, 다시 한 번 말하지만! 저번에 '비포 선라이즈' 같이 봤던 거, 배우들의 연기가 좋았던 거지, 네가 옆에 있어서 좋았다거나 그런 게 아니라고!"
+리코의 얼굴이 붉어지면서, 고개를 돌려 어떻게든 눈을 마주치지 않으려 한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"'어바웃 타임'이라는 영화 알아? 2013년에 나온 건데... 괜찮다면 같이 볼래? 시, 싫으면 말고! 나 혼자 봐도 상관 없으니까."
+"그, 그냥 리차드 커티스 감독의 로맨틱한 각본이 어떤지 보여주고 싶어서 그래. 우리가 함께 본다고 해서... 특별한 의미 같은 건 전혀 없다고!"
+귀까지 빨개진 리코는 곁눈질로 당신의 반응을 살핀다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"확실히 넓은 부실에 혼자 있으면, 남는 공간이 좀 쓸쓸한 느낌이긴 했어… 고, 고맙단 말은 절대 아냐! 없는 것 보단 낫다는 거지!"
+리코는 황급히 고개를 돌려 붉어진 얼굴을 감춘다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"이런 것도 영화라고 만든 거야? 내가 만들어도 이것보단 잘 만들겠다. 개연성, 연기, 음악, 뭐 하나 쓸만한 게 없어."
+크레딧이 올라가고 나서야 리코는 영화에 대한 불만을 터트린다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"쓰레기 영화라는 걸 알면서도 봐야만 한다는 것만큼 짜증나는 게 없어. 관객 수만 많으면 장땡이냐고."
+스크린에는 상업적으로 손 꼽히게 성공한 영화가 틀어져 있었다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"'시네마 천국'이라는 영화 알아? 모르면 여기 있으면 안 되지. 처음엔 그저 예쁜 영화였는데, 정말 영화를 좋아하게 되고 나서 다시 보니 훨씬 더 아름다운 얘기더라."
+리코는 모처럼 풀어진 표정으로 추억에 잠긴 듯 이야기를 한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"어릴 때 '그리스'라는 영화를 봤는데... 그때는 몰랐지만 지금 보면 좀 유치하긴 해. 그래도 노래는 괜찮았어."
+리코는 모처럼 풀어진 표정으로 추억에 잠긴 듯 이야기를 한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"왜 이게 명작인지 모르겠다고? 하아… 이런 애도 부원이라고 데리고 있어야 하는 내가 참 불쌍하다."
+리코는 다리를 꼬곤 당신을 한심하단 눈빛으로 내려다본다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"공부는 제대로 하고 있는 거 맞지? 성적 떨어지고 내 탓 하지 마, 괜히 나가버리면 나만 곤란하다구."
+리코는 핀잔을 주듯 이야기 하지만, 그녀의 목소리에는 미묘한 관심이 들어있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"악기라는 건 참 미묘한 것 같아. 대부분의 악기들은 정말 단순하게 생겼는데도 그 안에는 미세한 떨림에 따라 바뀌는 심오한 세계가 펼쳐지고..."
+리코는 턱을 괴고 당신을 바라보며 바이올린 이야기를 계속 한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"알고 있는 바이올린 곡 있어? 너무 어렵지만 않으면, 다음에 연습해서 한 번 쯤은 들려줄게."
+바이올린 이야기를 할 때만큼은 리코의 말투가 부드러웠다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"이, 이번에 픽사에서 신작 애니메이션 개봉하던데… 할 일 없으면 같이 보러 갈래? 무, 물론 보기 싫은데 보라는 건 아냐! 나도 일정 빡빡하거든!"
+리코는 한참을 머뭇거린 끝에 주먹을 꼭 쥐곤 용기 내어 당신에게 말하더니, 대수로운 일 아니라는 듯 고개를 홱 돌린다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">"하아!? 데, 데이트 신청같은 거 아냐! 그냥 그 집 딸기 케이크가 맛있어서… 아, 됐어! 가기 싫으면 관둬!"
+리코는 당신에게 방과후에 카페를 가자고 했다가, </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"동아리 지원금 신청서 잊지 말고 제출해야 한다? 뭐… 알아서 잘 하겠지만."
+리코는 무심한 듯이 말하지만, 그 안에는 보기 드문 신뢰가 담겨있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"재수 없어! 으… 유행 좀 못 따라가면 어떻냐구, 최신 가요따위 몰라도 사는 데 전혀 지장 없잖아! 유행은 금방 사그라드는 거고…"
+리코는 당신에게 반 친구들과 있었던 일을 말하며, 여전히 분이 덜 풀린 듯 씩씩거린다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"왜? 또 무슨 책 읽는지 물어보게? '예루살렘의 아이히만' 이라는 책이야."
+당신이 말을 걸기도 전에 리코가 먼저 대답한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"..."
+리코는 휴대폰에 집중하느라 당신이 쳐다보고 있는 줄도 모른다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"…뭐! 왜! 가끔은 뚜껑이 꽉 잠겨있을 수도 있는 거지!"
+리코는 500mL 생수병을 들고 한참을 끙끙대다가, 마지 못해 당신에게 뚜껑을 열어달라고 내밀며 소리친다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"…그으, 소리 지르려고 했던 건 아냐. 그냥… 홧김에 그런 거니까, 잊던지 말던지..."
+리코는 차마 미안하다는 말은 못하고 빙 둘러 말한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"으… 뻐근해."
+리코는 팔을 위로 쭉 뻗으며 기지개를 켰다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"벌써 시간이 이렇게 됐네… 바보들, 뭐가 저렇게 신나서 저렇게 뛰어나가는 거야."
+리코는 교문을 향해 우르르 몰려나가는 학생들의 모습을 가만히 바라보고 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"새삼 시간이 꽤나 지났네… 네가 온지 말야. 그 사이 풍경도 많이 바뀌었고."
+리코는 문득 바깥을 바라보곤 중얼거렸다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"무슨 책인지 궁금해? 다 읽고 빌려줄까?"
+리코는 책에서 시선을 떼지 않은 채로 말한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"…"
+리코는 뺨을 부풀리며 당신을 뚫어지게 쳐다본다. 마치 독설을 쏟아낼 준비를 하는 듯한 표정이었다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">"으… 안 쓰다듬어준지 꽤 오래 되었다고 생각하지 않아? 그러니까… 정 네가 원한다면, 좀 더 쓰다듬어줘도 괜찮은데...?"
+꽤나 오랜 시간 고민한 끝에 말을 꺼낸 리코는 얼굴을 붉히며 머뭇머뭇거리면서도 내심 기대하듯 당신에게 팔을 벌린다. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"…"
+리코는 불만 가득한 표정으로 당신을 쳐다보지만 입을 떼지는 않는다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>당신이 동아리 문을 여니 리코가 팔짱을 낀 채로 서있었다. 무언가 복잡한 감정이 얽힌 듯한 표정으로 당신을 바라보다가, 당신이 입을 열기도 전에 성큼 당신쪽으로 다가간다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"왜 이렇게 눈치가 없는 거야!
+언제나의 화난 목소리보단, 조금 더 머뭇거리는 느낌이 담겨있다.
+"지금쯤 되면 말이야! 뭐라도 했어야 할 거 아냐! 그러니까, 좋아한다고 하던가, 사귀자고 한다던가…"
+리코도 이 순간만큼은 평소의 날카로운 모습을 유지할 수가 없었다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>리코의 말이 여전히 공기중을 맴도는 동안, 당신은 등 뒤에 숨기고 있었던 꽃다발을 꺼냈다. 완벽한 순간만을 기다리고 있던 그 꽃다발에 리코의 눈동자가 커지며, 잠시 시간이 멈춘 듯 말을 잃는다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>리코는 당신이 건넨 꽃다발에 손을 뻗는다. 잠시동안 당신과 손을 잡은 채 손가락을 꼼지락거리며 간지러운 온기를 느낀다.
+"…진짜, 바보 맞다니까."
+리코는 악의라곤 전혀 찾아볼 수 없는, 지금껏 말 못한 애정들이 담긴 부드러운 말투로 당신에게 말한다. 리코의 입꼬리가 살짝 올라가며 나긋한 목소리로 말한다.
+"…고마워."</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>situation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>image_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"지각 할 줄 알았는데 의외로 제 시간에 나왔네. 그럼 가볼까?"
+리코는 편안해보이는 분홍색 민소매를 입고 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>도서관 안은 조용하고 차분했다. 가끔가다가 사람들의 책장 넘기는 소리만이 들렸다. 리코는 소설들이 꽂혀있는 책꽂이를 찬찬히 살펴보다가 책 한 권을 꺼낸다.
+"피아니스트, 이거 책이 원작이었구나. 전혀 몰랐어. 이거 빌려가야겠다."</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>리코는 선 자리에서 책을 몇 장 넘겨보더니 같은 책을 한 권 더 꺼낸다.
+"책 안골랐으면, 이거 같이 빌려서 보자. 그냥… 이야기 할 거리도 생기고, 나쁠 건 없잖아. "</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"뭐! 아무렇지도 않거든? 얼른 가기나 해! 예약 시간 다되어가니까…"
+리코는 괜히 날카로운 목소리로 짜증을 내곤 당신보다 앞서서 걸어간다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"와, 왔어? 여기서 별로 멀지 않으니까, 그냥 식당에서 봤어도 됐는데..."
+리코는 무언가 어색한 듯 말을 살짝 더듬는다. 살짝 붉어진 얼굴이 새하얀 옷과 대조된다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"-… 어라, 벌써 다 먹었어? 아직 할 이야기가 많이 남았는데… 어쩔 수 없지, 근처에 아인슈페너 맛있는 카페 알아."
+식사시간은 끝났어도 리코는 아직 할 이야기가 많은 듯 했다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"중간까지만 해도 엄청난 명작이라고 생각했는데 결말은 좀 실망이었어. 명작이라기엔 조금 아쉬운? 그리고-"
+음식들은 그럭저럭 나쁘지 않은 편이었지만 리코는 음식보단 대화를 더 신경썼다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"687… 688… 여깄다. 이쪽 선반은 전부 영화 책이야. 어디보자, 이거랑 이거랑… 또 이것도."
+리코는 이미 서점에 여러 번 와본 듯 익숙하게 책을 찾는다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"짐꾼 하나 있으니까 편하긴 하네. 혼자서 다닐 때보단 덜 심심하고…"
+리코는 당신을 쳐다보며 살짝 웃곤, 다시 목록에 있는 책들을 찾는다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"서점에서 구매할 책 목록은 가져왔지? 동아리 예산 제출할 때 쓸 영수증 챙기는 거 잊지 말고."
+리코는 가벼운 파란색 원피스를 입고 당신을 기다리고 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"늦어! 5분 일찍 다니라고 했지? 특히나 오늘은 내가 좋아하는 감독의 시사회라고 얘기했잖아."
+리코는 정시에 도착한 당신에게 핀잔을 준다. 검은색 정장이 불편한 듯 어깨를 자꾸 움직인다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"이렇게 입으니까 어색하다고? …읏, 신경쓰지 마! 내 일은 내가 알아서 하니까."
+리코는 얼굴을 확 붉히곤, 몸을 돌려 영화관으로 향한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>영화관의 불이 서서히 꺼지고, 리코와 당신은 나란히 앉아 스크린에 집중했다.
+캄캄한 영화관 안에서 스크린의 빛을 받은 리코의 눈빛이 반짝인다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">"…"
+리코는 시사회가 진행되는 내내 영화의 한 장면도 놓치지 않으려는 듯 영화에 집중한다. 2시간 남짓한 시간이 금방 지나간다. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"모처럼 일찍 왔네. 표는 예매해놨으니 팝콘은 네가 사."
+리코는 편안한 검은색 후드티를 입고 당신을 기다리고 있다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>평일이라 그런지 영화관에는 사람이 거의 없었다. 캄캄하던 스크린이 밝아지며 영화가 시작한다.
+리코는 이따금 콜라를 홀짝이며 편하게 영화를 감상한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5_3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"명작이 아니라도, 가끔은 이런 영화도 나쁘지 않네."
+영화의 중반부, 화려한 액션이 끝나고 잠시 쉬어가는 시간에 리코가 중얼거린다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"일찍 왔네? 저번에 너무 뭐라고 했나..."
+핑크색 블라우스 차림의 리코는 자신보다 먼저 온 당신을 보고 조금 놀란 듯 했다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"슬슬 갈까? 그때 봐뒀던 카페, 생각보다 멀더라고. 좀 걸어야 할 거야."
+리코는 당신을 슬쩍 쳐다보며 손짓한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"나쁘지 않네, 인테리어도 커피 냄새도."
+리코는 따뜻한 아메리카노와 몽블랑을 주문하곤, 잠시 주변을 둘러본다. 카페 내부는 아기자기한 소품들로 꾸며져 있었고, 큰 창문을 통해 들어오는 자연광이 따뜻한 분위기를 더했다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"응, 이거 맛있다. 한 번 먹어볼래?"
+리코는 먹기 좋은 크기로 잘린 몽블랑 한 조각을 새 포크로 집어 당신에게 건네었다가, 잠시 후에서야 자신의 행동을 인지하곤 얼굴이 확 달아오른다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6_3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"그, 그냥 맛있어서 그런 거야! 아무 뜻도 없었거든? 이상한 생각 하지 말고 그냥 먹어!"
+쥐고 있던 포크를 도로 접시에 올려놓곤 당신에게 버럭 화를 낸다. 고개를 확 돌리곤, 그 뒤로 한참을 당신과 눈을 마주치지도 못한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"버리고 갈까 말까 100번은 고민했어. 그렇게 게을러서 밥은 차려먹겠어? 기대도 한 적 없지만."
+당신이 1분 늦게 약속장소에 도착하자 리코는 매섭게 당신을 쏘아붙힌다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"아, 아까는 뭐… 그렇게까지 심하게 말하려고 했던 건 아니야."
+리코는 커피를 손에 쥐고 잠시 머뭇거리더니 힘들게 입을 연다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"혹시나 안 나올까봐 싶어서 홧김에 말이 좀 심하게 나와서… 그, 그렇다고 걱정했다거나, 보고싶었다던가 그런 건 아니니까 착각하지 마!"
+리코의 날카로운 말투 속에서도 미묘한 안도감이 섞여있었다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8_1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8_2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"표 시간은 제대로 확인한 거 맞지? 괜히 네 바보같은 실수로 하루를 망치긴 싫으니까 말이야."
+함께 오케스트라 공연을 보러 가기로 한 날, 리코는 언제나와 같이 당신에게 쌀쌀맞게 말한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"호, 혼자 가기에는 좀 궁상맞으니까 널 데려가는 것 뿐이야! 착각하지 말라구."
+리코의 분위기가 미묘하게 달라지곤, 고개를 홱 돌려 제 갈 길을 간다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"나도 저렇게 연주해봤으면…"
+리코는 들릴 듯 말 듯한 목소리로 중얼거린다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">"…"
+기나긴 클래식 공연 내내 리코의 눈빛이 초롱초롱하다. 특히나 바이올린 솔리스트에게서 눈을 떼지 못하고 있다. </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1161,7 +1534,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1191,6 +1564,14 @@
       <name val="Segoe UI Emoji"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1214,7 +1595,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1229,6 +1610,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1564,10 +1951,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CB6AF96-1BBB-40CA-B5E6-6C0144248FD4}">
-  <dimension ref="A1:E122"/>
+  <dimension ref="A1:E151"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A109" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E118" sqref="E118"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C143" sqref="C143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2732,7 +3119,7 @@
         <v>21</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.3">
@@ -3089,7 +3476,7 @@
         <v>2</v>
       </c>
       <c r="E89" s="4" t="s">
-        <v>95</v>
+        <v>129</v>
       </c>
     </row>
     <row r="90" spans="1:5" ht="33" x14ac:dyDescent="0.3">
@@ -3106,7 +3493,7 @@
         <v>3</v>
       </c>
       <c r="E90" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="91" spans="1:5" ht="49.5" x14ac:dyDescent="0.3">
@@ -3123,7 +3510,7 @@
         <v>4</v>
       </c>
       <c r="E91" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="92" spans="1:5" ht="33" x14ac:dyDescent="0.3">
@@ -3140,7 +3527,7 @@
         <v>5</v>
       </c>
       <c r="E92" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="93" spans="1:5" ht="33" x14ac:dyDescent="0.3">
@@ -3157,7 +3544,7 @@
         <v>6</v>
       </c>
       <c r="E93" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="94" spans="1:5" ht="33" x14ac:dyDescent="0.3">
@@ -3174,7 +3561,7 @@
         <v>7</v>
       </c>
       <c r="E94" s="4" t="s">
-        <v>100</v>
+        <v>135</v>
       </c>
     </row>
     <row r="95" spans="1:5" ht="33" x14ac:dyDescent="0.3">
@@ -3191,7 +3578,7 @@
         <v>8</v>
       </c>
       <c r="E95" s="4" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="96" spans="1:5" ht="33" x14ac:dyDescent="0.3">
@@ -3208,7 +3595,7 @@
         <v>9</v>
       </c>
       <c r="E96" s="4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="97" spans="1:5" ht="33" x14ac:dyDescent="0.3">
@@ -3225,7 +3612,7 @@
         <v>10</v>
       </c>
       <c r="E97" s="4" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="98" spans="1:5" ht="33" x14ac:dyDescent="0.3">
@@ -3242,7 +3629,7 @@
         <v>11</v>
       </c>
       <c r="E98" s="4" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="99" spans="1:5" ht="33" x14ac:dyDescent="0.3">
@@ -3259,7 +3646,7 @@
         <v>12</v>
       </c>
       <c r="E99" s="4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="100" spans="1:5" ht="33" x14ac:dyDescent="0.3">
@@ -3276,7 +3663,7 @@
         <v>13</v>
       </c>
       <c r="E100" s="4" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="101" spans="1:5" ht="33" x14ac:dyDescent="0.3">
@@ -3293,7 +3680,7 @@
         <v>14</v>
       </c>
       <c r="E101" s="4" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="102" spans="1:5" ht="49.5" x14ac:dyDescent="0.3">
@@ -3310,7 +3697,7 @@
         <v>15</v>
       </c>
       <c r="E102" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="103" spans="1:5" ht="33" x14ac:dyDescent="0.3">
@@ -3327,7 +3714,7 @@
         <v>16</v>
       </c>
       <c r="E103" s="4" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="104" spans="1:5" ht="33" x14ac:dyDescent="0.3">
@@ -3344,7 +3731,7 @@
         <v>17</v>
       </c>
       <c r="E104" s="4" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="105" spans="1:5" ht="33" x14ac:dyDescent="0.3">
@@ -3361,7 +3748,7 @@
         <v>18</v>
       </c>
       <c r="E105" s="4" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="106" spans="1:5" ht="33" x14ac:dyDescent="0.3">
@@ -3378,7 +3765,7 @@
         <v>19</v>
       </c>
       <c r="E106" s="4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="107" spans="1:5" ht="33" x14ac:dyDescent="0.3">
@@ -3395,7 +3782,7 @@
         <v>20</v>
       </c>
       <c r="E107" s="4" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="108" spans="1:5" ht="27" x14ac:dyDescent="0.3">
@@ -3412,7 +3799,7 @@
         <v>21</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="109" spans="1:5" ht="33" x14ac:dyDescent="0.3">
@@ -3429,7 +3816,7 @@
         <v>22</v>
       </c>
       <c r="E109" s="4" t="s">
-        <v>117</v>
+        <v>149</v>
       </c>
     </row>
     <row r="110" spans="1:5" ht="33" x14ac:dyDescent="0.3">
@@ -3446,7 +3833,7 @@
         <v>23</v>
       </c>
       <c r="E110" s="4" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="111" spans="1:5" ht="27" x14ac:dyDescent="0.3">
@@ -3463,7 +3850,7 @@
         <v>24</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>119</v>
+        <v>152</v>
       </c>
     </row>
     <row r="112" spans="1:5" ht="33" x14ac:dyDescent="0.3">
@@ -3480,7 +3867,7 @@
         <v>25</v>
       </c>
       <c r="E112" s="4" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="113" spans="1:5" ht="33" x14ac:dyDescent="0.3">
@@ -3491,13 +3878,13 @@
         <v>3</v>
       </c>
       <c r="C113" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D113">
         <v>1</v>
       </c>
       <c r="E113" s="4" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="114" spans="1:5" ht="33" x14ac:dyDescent="0.3">
@@ -3508,13 +3895,13 @@
         <v>3</v>
       </c>
       <c r="C114" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D114">
         <v>2</v>
       </c>
       <c r="E114" s="4" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="115" spans="1:5" ht="33" x14ac:dyDescent="0.3">
@@ -3525,13 +3912,13 @@
         <v>3</v>
       </c>
       <c r="C115" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D115">
         <v>3</v>
       </c>
       <c r="E115" s="4" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="116" spans="1:5" ht="33" x14ac:dyDescent="0.3">
@@ -3542,13 +3929,13 @@
         <v>3</v>
       </c>
       <c r="C116" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D116">
         <v>4</v>
       </c>
       <c r="E116" s="4" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="117" spans="1:5" ht="33" x14ac:dyDescent="0.3">
@@ -3559,13 +3946,13 @@
         <v>3</v>
       </c>
       <c r="C117" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D117">
         <v>5</v>
       </c>
       <c r="E117" s="4" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="118" spans="1:5" ht="33" x14ac:dyDescent="0.3">
@@ -3576,13 +3963,13 @@
         <v>3</v>
       </c>
       <c r="C118" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D118">
         <v>6</v>
       </c>
       <c r="E118" s="4" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="119" spans="1:5" ht="33" x14ac:dyDescent="0.3">
@@ -3593,13 +3980,13 @@
         <v>3</v>
       </c>
       <c r="C119" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D119">
         <v>7</v>
       </c>
       <c r="E119" s="4" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="120" spans="1:5" ht="49.5" x14ac:dyDescent="0.3">
@@ -3610,13 +3997,13 @@
         <v>3</v>
       </c>
       <c r="C120" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="D120">
         <v>1</v>
       </c>
       <c r="E120" s="4" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="121" spans="1:5" ht="66" x14ac:dyDescent="0.3">
@@ -3627,19 +4014,1590 @@
         <v>3</v>
       </c>
       <c r="C121" t="s">
+        <v>124</v>
+      </c>
+      <c r="D121">
+        <v>2</v>
+      </c>
+      <c r="E121" s="4" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" ht="66" x14ac:dyDescent="0.3">
+      <c r="A122">
+        <v>121</v>
+      </c>
+      <c r="B122">
+        <v>4</v>
+      </c>
+      <c r="C122" t="s">
+        <v>92</v>
+      </c>
+      <c r="D122">
+        <v>1</v>
+      </c>
+      <c r="E122" s="3" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" ht="33" x14ac:dyDescent="0.3">
+      <c r="A123">
+        <v>122</v>
+      </c>
+      <c r="B123">
+        <v>4</v>
+      </c>
+      <c r="C123" t="s">
+        <v>92</v>
+      </c>
+      <c r="D123">
+        <v>2</v>
+      </c>
+      <c r="E123" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="D121">
-        <v>2</v>
-      </c>
-      <c r="E121" s="4" t="s">
+    </row>
+    <row r="124" spans="1:5" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A124">
+        <v>123</v>
+      </c>
+      <c r="B124">
+        <v>4</v>
+      </c>
+      <c r="C124" t="s">
+        <v>92</v>
+      </c>
+      <c r="D124">
+        <v>3</v>
+      </c>
+      <c r="E124" s="4" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A122" t="s">
+    <row r="125" spans="1:5" ht="33" x14ac:dyDescent="0.3">
+      <c r="A125">
+        <v>124</v>
+      </c>
+      <c r="B125">
+        <v>4</v>
+      </c>
+      <c r="C125" t="s">
+        <v>92</v>
+      </c>
+      <c r="D125">
+        <v>4</v>
+      </c>
+      <c r="E125" s="4" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" ht="33" x14ac:dyDescent="0.3">
+      <c r="A126">
+        <v>125</v>
+      </c>
+      <c r="B126">
+        <v>4</v>
+      </c>
+      <c r="C126" t="s">
+        <v>92</v>
+      </c>
+      <c r="D126">
         <v>5</v>
       </c>
+      <c r="E126" s="4" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" ht="33" x14ac:dyDescent="0.3">
+      <c r="A127">
+        <v>126</v>
+      </c>
+      <c r="B127">
+        <v>4</v>
+      </c>
+      <c r="C127" t="s">
+        <v>92</v>
+      </c>
+      <c r="D127">
+        <v>6</v>
+      </c>
+      <c r="E127" s="4" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" ht="33" x14ac:dyDescent="0.3">
+      <c r="A128">
+        <v>127</v>
+      </c>
+      <c r="B128">
+        <v>4</v>
+      </c>
+      <c r="C128" t="s">
+        <v>92</v>
+      </c>
+      <c r="D128">
+        <v>7</v>
+      </c>
+      <c r="E128" s="5" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" ht="33" x14ac:dyDescent="0.3">
+      <c r="A129">
+        <v>128</v>
+      </c>
+      <c r="B129">
+        <v>4</v>
+      </c>
+      <c r="C129" t="s">
+        <v>92</v>
+      </c>
+      <c r="D129">
+        <v>8</v>
+      </c>
+      <c r="E129" s="5" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" ht="33" x14ac:dyDescent="0.3">
+      <c r="A130">
+        <v>129</v>
+      </c>
+      <c r="B130">
+        <v>4</v>
+      </c>
+      <c r="C130" t="s">
+        <v>92</v>
+      </c>
+      <c r="D130">
+        <v>9</v>
+      </c>
+      <c r="E130" s="5" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" ht="33" x14ac:dyDescent="0.3">
+      <c r="A131">
+        <v>130</v>
+      </c>
+      <c r="B131">
+        <v>4</v>
+      </c>
+      <c r="C131" t="s">
+        <v>92</v>
+      </c>
+      <c r="D131">
+        <v>10</v>
+      </c>
+      <c r="E131" s="5" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" ht="33" x14ac:dyDescent="0.3">
+      <c r="A132">
+        <v>131</v>
+      </c>
+      <c r="B132">
+        <v>4</v>
+      </c>
+      <c r="C132" t="s">
+        <v>92</v>
+      </c>
+      <c r="D132">
+        <v>11</v>
+      </c>
+      <c r="E132" s="5" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" ht="33" x14ac:dyDescent="0.3">
+      <c r="A133">
+        <v>132</v>
+      </c>
+      <c r="B133">
+        <v>4</v>
+      </c>
+      <c r="C133" t="s">
+        <v>92</v>
+      </c>
+      <c r="D133">
+        <v>12</v>
+      </c>
+      <c r="E133" s="5" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" ht="33" x14ac:dyDescent="0.3">
+      <c r="A134">
+        <v>133</v>
+      </c>
+      <c r="B134">
+        <v>4</v>
+      </c>
+      <c r="C134" t="s">
+        <v>92</v>
+      </c>
+      <c r="D134">
+        <v>13</v>
+      </c>
+      <c r="E134" s="5" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" ht="33" x14ac:dyDescent="0.3">
+      <c r="A135">
+        <v>134</v>
+      </c>
+      <c r="B135">
+        <v>4</v>
+      </c>
+      <c r="C135" t="s">
+        <v>92</v>
+      </c>
+      <c r="D135">
+        <v>14</v>
+      </c>
+      <c r="E135" s="5" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" ht="33" x14ac:dyDescent="0.3">
+      <c r="A136">
+        <v>135</v>
+      </c>
+      <c r="B136">
+        <v>4</v>
+      </c>
+      <c r="C136" t="s">
+        <v>92</v>
+      </c>
+      <c r="D136">
+        <v>15</v>
+      </c>
+      <c r="E136" s="5" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" ht="33" x14ac:dyDescent="0.3">
+      <c r="A137">
+        <v>136</v>
+      </c>
+      <c r="B137">
+        <v>4</v>
+      </c>
+      <c r="C137" t="s">
+        <v>92</v>
+      </c>
+      <c r="D137">
+        <v>16</v>
+      </c>
+      <c r="E137" s="5" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" ht="33" x14ac:dyDescent="0.3">
+      <c r="A138">
+        <v>137</v>
+      </c>
+      <c r="B138">
+        <v>4</v>
+      </c>
+      <c r="C138" t="s">
+        <v>92</v>
+      </c>
+      <c r="D138">
+        <v>17</v>
+      </c>
+      <c r="E138" s="5" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" ht="33" x14ac:dyDescent="0.3">
+      <c r="A139">
+        <v>138</v>
+      </c>
+      <c r="B139">
+        <v>4</v>
+      </c>
+      <c r="C139" t="s">
+        <v>92</v>
+      </c>
+      <c r="D139">
+        <v>18</v>
+      </c>
+      <c r="E139" s="4" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" ht="33" x14ac:dyDescent="0.3">
+      <c r="A140">
+        <v>139</v>
+      </c>
+      <c r="B140">
+        <v>4</v>
+      </c>
+      <c r="C140" t="s">
+        <v>92</v>
+      </c>
+      <c r="D140">
+        <v>19</v>
+      </c>
+      <c r="E140" s="5" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" ht="33" x14ac:dyDescent="0.3">
+      <c r="A141">
+        <v>140</v>
+      </c>
+      <c r="B141">
+        <v>4</v>
+      </c>
+      <c r="C141" t="s">
+        <v>92</v>
+      </c>
+      <c r="D141">
+        <v>20</v>
+      </c>
+      <c r="E141" s="5" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" ht="27" x14ac:dyDescent="0.3">
+      <c r="A142">
+        <v>141</v>
+      </c>
+      <c r="B142">
+        <v>4</v>
+      </c>
+      <c r="C142" t="s">
+        <v>92</v>
+      </c>
+      <c r="D142">
+        <v>21</v>
+      </c>
+      <c r="E142" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" ht="33" x14ac:dyDescent="0.3">
+      <c r="A143">
+        <v>142</v>
+      </c>
+      <c r="B143">
+        <v>4</v>
+      </c>
+      <c r="C143" t="s">
+        <v>92</v>
+      </c>
+      <c r="D143">
+        <v>22</v>
+      </c>
+      <c r="E143" s="5" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" ht="33" x14ac:dyDescent="0.3">
+      <c r="A144">
+        <v>143</v>
+      </c>
+      <c r="B144">
+        <v>4</v>
+      </c>
+      <c r="C144" t="s">
+        <v>92</v>
+      </c>
+      <c r="D144">
+        <v>23</v>
+      </c>
+      <c r="E144" s="5" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" ht="27" x14ac:dyDescent="0.3">
+      <c r="A145">
+        <v>144</v>
+      </c>
+      <c r="B145">
+        <v>4</v>
+      </c>
+      <c r="C145" t="s">
+        <v>92</v>
+      </c>
+      <c r="D145">
+        <v>24</v>
+      </c>
+      <c r="E145" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" ht="33" x14ac:dyDescent="0.3">
+      <c r="A146">
+        <v>145</v>
+      </c>
+      <c r="B146">
+        <v>4</v>
+      </c>
+      <c r="C146" t="s">
+        <v>92</v>
+      </c>
+      <c r="D146">
+        <v>25</v>
+      </c>
+      <c r="E146" s="5" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A147">
+        <v>146</v>
+      </c>
+      <c r="B147">
+        <v>4</v>
+      </c>
+      <c r="C147" t="s">
+        <v>124</v>
+      </c>
+      <c r="D147">
+        <v>1</v>
+      </c>
+      <c r="E147" s="4" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" ht="66" x14ac:dyDescent="0.3">
+      <c r="A148">
+        <v>147</v>
+      </c>
+      <c r="B148">
+        <v>4</v>
+      </c>
+      <c r="C148" t="s">
+        <v>124</v>
+      </c>
+      <c r="D148">
+        <v>2</v>
+      </c>
+      <c r="E148" s="4" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A149">
+        <v>148</v>
+      </c>
+      <c r="B149">
+        <v>4</v>
+      </c>
+      <c r="C149" t="s">
+        <v>124</v>
+      </c>
+      <c r="D149">
+        <v>3</v>
+      </c>
+      <c r="E149" s="4" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" ht="66" x14ac:dyDescent="0.3">
+      <c r="A150">
+        <v>149</v>
+      </c>
+      <c r="B150">
+        <v>4</v>
+      </c>
+      <c r="C150" t="s">
+        <v>124</v>
+      </c>
+      <c r="D150">
+        <v>4</v>
+      </c>
+      <c r="E150" s="4" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A151" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E3678CA-3602-494A-BDA8-D0DC73F7A4F8}">
+  <dimension ref="A1:G150"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="4.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.625" customWidth="1"/>
+    <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="223.875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>160</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>161</v>
+      </c>
+      <c r="G1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="27" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>159</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s">
+        <v>162</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="27" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>159</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3" t="s">
+        <v>163</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="27" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>159</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4" t="s">
+        <v>163</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="27" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s">
+        <v>159</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5" t="s">
+        <v>167</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="27" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6" t="s">
+        <v>159</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6" t="s">
+        <v>167</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="27" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="C7" t="s">
+        <v>159</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7" t="s">
+        <v>169</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="27" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>3</v>
+      </c>
+      <c r="C8" t="s">
+        <v>159</v>
+      </c>
+      <c r="D8">
+        <v>2</v>
+      </c>
+      <c r="E8">
+        <v>4</v>
+      </c>
+      <c r="F8" t="s">
+        <v>169</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="27" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>3</v>
+      </c>
+      <c r="C9" t="s">
+        <v>159</v>
+      </c>
+      <c r="D9">
+        <v>3</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9" t="s">
+        <v>173</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="27" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>3</v>
+      </c>
+      <c r="C10" t="s">
+        <v>159</v>
+      </c>
+      <c r="D10">
+        <v>3</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10" t="s">
+        <v>174</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="27" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>3</v>
+      </c>
+      <c r="C11" t="s">
+        <v>159</v>
+      </c>
+      <c r="D11">
+        <v>3</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11" t="s">
+        <v>174</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="27" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>3</v>
+      </c>
+      <c r="C12" t="s">
+        <v>159</v>
+      </c>
+      <c r="D12">
+        <v>4</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12" t="s">
+        <v>178</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="27" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>3</v>
+      </c>
+      <c r="C13" t="s">
+        <v>159</v>
+      </c>
+      <c r="D13">
+        <v>4</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13" t="s">
+        <v>178</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="27" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14" t="s">
+        <v>159</v>
+      </c>
+      <c r="D14">
+        <v>4</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14" t="s">
+        <v>180</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="27" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>3</v>
+      </c>
+      <c r="C15" t="s">
+        <v>159</v>
+      </c>
+      <c r="D15">
+        <v>4</v>
+      </c>
+      <c r="E15">
+        <v>4</v>
+      </c>
+      <c r="F15" t="s">
+        <v>180</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="27" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>3</v>
+      </c>
+      <c r="C16" t="s">
+        <v>159</v>
+      </c>
+      <c r="D16">
+        <v>5</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16" t="s">
+        <v>182</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="27" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>3</v>
+      </c>
+      <c r="C17" t="s">
+        <v>159</v>
+      </c>
+      <c r="D17">
+        <v>5</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17" t="s">
+        <v>186</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="27" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>3</v>
+      </c>
+      <c r="C18" t="s">
+        <v>159</v>
+      </c>
+      <c r="D18">
+        <v>5</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18" t="s">
+        <v>188</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="27" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>3</v>
+      </c>
+      <c r="C19" t="s">
+        <v>159</v>
+      </c>
+      <c r="D19">
+        <v>6</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19" t="s">
+        <v>190</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="27" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>3</v>
+      </c>
+      <c r="C20" t="s">
+        <v>159</v>
+      </c>
+      <c r="D20">
+        <v>6</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20" t="s">
+        <v>190</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="27" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>3</v>
+      </c>
+      <c r="C21" t="s">
+        <v>159</v>
+      </c>
+      <c r="D21">
+        <v>6</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21" t="s">
+        <v>193</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="27" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>3</v>
+      </c>
+      <c r="C22" t="s">
+        <v>159</v>
+      </c>
+      <c r="D22">
+        <v>6</v>
+      </c>
+      <c r="E22">
+        <v>4</v>
+      </c>
+      <c r="F22" t="s">
+        <v>193</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="27" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>3</v>
+      </c>
+      <c r="C23" t="s">
+        <v>159</v>
+      </c>
+      <c r="D23">
+        <v>6</v>
+      </c>
+      <c r="E23">
+        <v>5</v>
+      </c>
+      <c r="F23" t="s">
+        <v>196</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="27" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>3</v>
+      </c>
+      <c r="C24" t="s">
+        <v>159</v>
+      </c>
+      <c r="D24">
+        <v>7</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24" t="s">
+        <v>198</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>3</v>
+      </c>
+      <c r="C25" t="s">
+        <v>159</v>
+      </c>
+      <c r="D25">
+        <v>7</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="27" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <v>3</v>
+      </c>
+      <c r="C26" t="s">
+        <v>159</v>
+      </c>
+      <c r="D26">
+        <v>7</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="G26" s="6" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="27" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>3</v>
+      </c>
+      <c r="C27" t="s">
+        <v>159</v>
+      </c>
+      <c r="D27">
+        <v>8</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27" t="s">
+        <v>203</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="27" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <v>3</v>
+      </c>
+      <c r="C28" t="s">
+        <v>159</v>
+      </c>
+      <c r="D28">
+        <v>8</v>
+      </c>
+      <c r="E28">
+        <v>2</v>
+      </c>
+      <c r="F28" t="s">
+        <v>203</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="27" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <v>3</v>
+      </c>
+      <c r="C29" t="s">
+        <v>159</v>
+      </c>
+      <c r="D29">
+        <v>8</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29" t="s">
+        <v>204</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="27" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <v>3</v>
+      </c>
+      <c r="C30" t="s">
+        <v>159</v>
+      </c>
+      <c r="D30">
+        <v>8</v>
+      </c>
+      <c r="E30">
+        <v>4</v>
+      </c>
+      <c r="F30" t="s">
+        <v>204</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>5</v>
+      </c>
+      <c r="G31" s="2"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="G32" s="2"/>
+    </row>
+    <row r="33" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G33" s="2"/>
+    </row>
+    <row r="34" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G34" s="2"/>
+    </row>
+    <row r="35" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G35" s="2"/>
+    </row>
+    <row r="36" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G36" s="2"/>
+    </row>
+    <row r="37" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G37" s="2"/>
+    </row>
+    <row r="38" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G38" s="2"/>
+    </row>
+    <row r="39" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G39" s="2"/>
+    </row>
+    <row r="40" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G40" s="2"/>
+    </row>
+    <row r="41" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G41" s="2"/>
+    </row>
+    <row r="42" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G42" s="2"/>
+    </row>
+    <row r="43" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G43" s="2"/>
+    </row>
+    <row r="44" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G44" s="2"/>
+    </row>
+    <row r="45" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G45" s="1"/>
+    </row>
+    <row r="46" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G46" s="2"/>
+    </row>
+    <row r="47" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G47" s="2"/>
+    </row>
+    <row r="48" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G48" s="1"/>
+    </row>
+    <row r="49" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G49" s="1"/>
+    </row>
+    <row r="50" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G50" s="1"/>
+    </row>
+    <row r="51" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G51" s="1"/>
+    </row>
+    <row r="52" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G52" s="1"/>
+    </row>
+    <row r="53" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G53" s="1"/>
+    </row>
+    <row r="54" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G54" s="1"/>
+    </row>
+    <row r="55" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G55" s="1"/>
+    </row>
+    <row r="56" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G56" s="1"/>
+    </row>
+    <row r="57" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G57" s="1"/>
+    </row>
+    <row r="58" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G58" s="1"/>
+    </row>
+    <row r="59" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G59" s="1"/>
+    </row>
+    <row r="60" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G60" s="1"/>
+    </row>
+    <row r="61" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G61" s="1"/>
+    </row>
+    <row r="62" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G62" s="1"/>
+    </row>
+    <row r="63" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G63" s="1"/>
+    </row>
+    <row r="64" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G64" s="1"/>
+    </row>
+    <row r="65" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G65" s="1"/>
+    </row>
+    <row r="66" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G66" s="1"/>
+    </row>
+    <row r="67" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G67" s="1"/>
+    </row>
+    <row r="68" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G68" s="1"/>
+    </row>
+    <row r="69" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G69" s="1"/>
+    </row>
+    <row r="70" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G70" s="1"/>
+    </row>
+    <row r="71" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G71" s="1"/>
+    </row>
+    <row r="72" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G72" s="1"/>
+    </row>
+    <row r="73" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G73" s="1"/>
+    </row>
+    <row r="74" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G74" s="1"/>
+    </row>
+    <row r="75" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G75" s="1"/>
+    </row>
+    <row r="76" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G76" s="1"/>
+    </row>
+    <row r="77" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G77" s="1"/>
+    </row>
+    <row r="78" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G78" s="1"/>
+    </row>
+    <row r="79" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G79" s="1"/>
+    </row>
+    <row r="80" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G80" s="1"/>
+    </row>
+    <row r="81" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G81" s="1"/>
+    </row>
+    <row r="82" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G82" s="1"/>
+    </row>
+    <row r="83" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G83" s="1"/>
+    </row>
+    <row r="84" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G84" s="1"/>
+    </row>
+    <row r="85" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G85" s="1"/>
+    </row>
+    <row r="86" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G86" s="1"/>
+    </row>
+    <row r="87" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G87" s="1"/>
+    </row>
+    <row r="88" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G88" s="3"/>
+    </row>
+    <row r="89" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G89" s="4"/>
+    </row>
+    <row r="90" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G90" s="4"/>
+    </row>
+    <row r="91" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G91" s="4"/>
+    </row>
+    <row r="92" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G92" s="4"/>
+    </row>
+    <row r="93" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G93" s="4"/>
+    </row>
+    <row r="94" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G94" s="4"/>
+    </row>
+    <row r="95" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G95" s="4"/>
+    </row>
+    <row r="96" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G96" s="4"/>
+    </row>
+    <row r="97" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G97" s="4"/>
+    </row>
+    <row r="98" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G98" s="4"/>
+    </row>
+    <row r="99" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G99" s="4"/>
+    </row>
+    <row r="100" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G100" s="4"/>
+    </row>
+    <row r="101" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G101" s="4"/>
+    </row>
+    <row r="102" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G102" s="4"/>
+    </row>
+    <row r="103" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G103" s="4"/>
+    </row>
+    <row r="104" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G104" s="4"/>
+    </row>
+    <row r="105" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G105" s="4"/>
+    </row>
+    <row r="106" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G106" s="4"/>
+    </row>
+    <row r="107" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G107" s="4"/>
+    </row>
+    <row r="108" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G108" s="2"/>
+    </row>
+    <row r="109" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G109" s="4"/>
+    </row>
+    <row r="110" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G110" s="4"/>
+    </row>
+    <row r="111" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G111" s="2"/>
+    </row>
+    <row r="112" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G112" s="4"/>
+    </row>
+    <row r="113" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G113" s="4"/>
+    </row>
+    <row r="114" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G114" s="4"/>
+    </row>
+    <row r="115" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G115" s="4"/>
+    </row>
+    <row r="116" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G116" s="4"/>
+    </row>
+    <row r="117" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G117" s="4"/>
+    </row>
+    <row r="118" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G118" s="4"/>
+    </row>
+    <row r="119" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G119" s="4"/>
+    </row>
+    <row r="120" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G120" s="4"/>
+    </row>
+    <row r="121" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G121" s="4"/>
+    </row>
+    <row r="122" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G122" s="3"/>
+    </row>
+    <row r="123" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G123" s="4"/>
+    </row>
+    <row r="124" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G124" s="4"/>
+    </row>
+    <row r="125" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G125" s="4"/>
+    </row>
+    <row r="126" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G126" s="4"/>
+    </row>
+    <row r="127" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G127" s="4"/>
+    </row>
+    <row r="128" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G128" s="5"/>
+    </row>
+    <row r="129" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G129" s="5"/>
+    </row>
+    <row r="130" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G130" s="5"/>
+    </row>
+    <row r="131" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G131" s="5"/>
+    </row>
+    <row r="132" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G132" s="5"/>
+    </row>
+    <row r="133" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G133" s="5"/>
+    </row>
+    <row r="134" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G134" s="5"/>
+    </row>
+    <row r="135" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G135" s="5"/>
+    </row>
+    <row r="136" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G136" s="5"/>
+    </row>
+    <row r="137" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G137" s="5"/>
+    </row>
+    <row r="138" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G138" s="5"/>
+    </row>
+    <row r="139" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G139" s="4"/>
+    </row>
+    <row r="140" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G140" s="5"/>
+    </row>
+    <row r="141" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G141" s="5"/>
+    </row>
+    <row r="142" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G142" s="2"/>
+    </row>
+    <row r="143" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G143" s="5"/>
+    </row>
+    <row r="144" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G144" s="5"/>
+    </row>
+    <row r="145" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G145" s="2"/>
+    </row>
+    <row r="146" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G146" s="5"/>
+    </row>
+    <row r="147" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G147" s="4"/>
+    </row>
+    <row r="148" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G148" s="4"/>
+    </row>
+    <row r="149" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G149" s="4"/>
+    </row>
+    <row r="150" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="G150" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/CHATGAME/Assets/StreamingAssets/Excel/dialogue.xlsx
+++ b/CHATGAME/Assets/StreamingAssets/Excel/dialogue.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\one\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\one\Desktop\ChatGame\AI-CHATBOT-GAME\CHATGAME\Assets\StreamingAssets\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{878434B2-6368-454F-BECA-3BB9BCA66665}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A6DE552-CDB3-490B-A747-83E7046981D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="1710" windowWidth="25545" windowHeight="13245" activeTab="1" xr2:uid="{2CE2283B-12A8-44FA-8C37-8BC2013A442E}"/>
+    <workbookView xWindow="480" yWindow="1710" windowWidth="27255" windowHeight="13245" xr2:uid="{2CE2283B-12A8-44FA-8C37-8BC2013A442E}"/>
   </bookViews>
   <sheets>
     <sheet name="Dialogue" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="549" uniqueCount="359">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1528,6 +1528,458 @@
     <t xml:space="preserve">"…"
 기나긴 클래식 공연 내내 리코의 눈빛이 초롱초롱하다. 특히나 바이올린 솔리스트에게서 눈을 떼지 못하고 있다. </t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>entext</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>en 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>en 2</t>
+  </si>
+  <si>
+    <t>en 3</t>
+  </si>
+  <si>
+    <t>en 4</t>
+  </si>
+  <si>
+    <t>en 5</t>
+  </si>
+  <si>
+    <t>en 6</t>
+  </si>
+  <si>
+    <t>en 7</t>
+  </si>
+  <si>
+    <t>en 8</t>
+  </si>
+  <si>
+    <t>en 9</t>
+  </si>
+  <si>
+    <t>en 10</t>
+  </si>
+  <si>
+    <t>en 11</t>
+  </si>
+  <si>
+    <t>en 12</t>
+  </si>
+  <si>
+    <t>en 13</t>
+  </si>
+  <si>
+    <t>en 14</t>
+  </si>
+  <si>
+    <t>en 15</t>
+  </si>
+  <si>
+    <t>en 16</t>
+  </si>
+  <si>
+    <t>en 17</t>
+  </si>
+  <si>
+    <t>en 18</t>
+  </si>
+  <si>
+    <t>en 19</t>
+  </si>
+  <si>
+    <t>en 20</t>
+  </si>
+  <si>
+    <t>en 21</t>
+  </si>
+  <si>
+    <t>en 22</t>
+  </si>
+  <si>
+    <t>en 23</t>
+  </si>
+  <si>
+    <t>en 24</t>
+  </si>
+  <si>
+    <t>en 25</t>
+  </si>
+  <si>
+    <t>en 26</t>
+  </si>
+  <si>
+    <t>en 27</t>
+  </si>
+  <si>
+    <t>en 28</t>
+  </si>
+  <si>
+    <t>en 29</t>
+  </si>
+  <si>
+    <t>en 30</t>
+  </si>
+  <si>
+    <t>en 31</t>
+  </si>
+  <si>
+    <t>en 32</t>
+  </si>
+  <si>
+    <t>en 33</t>
+  </si>
+  <si>
+    <t>en 34</t>
+  </si>
+  <si>
+    <t>en 35</t>
+  </si>
+  <si>
+    <t>en 36</t>
+  </si>
+  <si>
+    <t>en 37</t>
+  </si>
+  <si>
+    <t>en 38</t>
+  </si>
+  <si>
+    <t>en 39</t>
+  </si>
+  <si>
+    <t>en 40</t>
+  </si>
+  <si>
+    <t>en 41</t>
+  </si>
+  <si>
+    <t>en 42</t>
+  </si>
+  <si>
+    <t>en 43</t>
+  </si>
+  <si>
+    <t>en 44</t>
+  </si>
+  <si>
+    <t>en 45</t>
+  </si>
+  <si>
+    <t>en 46</t>
+  </si>
+  <si>
+    <t>en 47</t>
+  </si>
+  <si>
+    <t>en 48</t>
+  </si>
+  <si>
+    <t>en 49</t>
+  </si>
+  <si>
+    <t>en 50</t>
+  </si>
+  <si>
+    <t>en 51</t>
+  </si>
+  <si>
+    <t>en 52</t>
+  </si>
+  <si>
+    <t>en 53</t>
+  </si>
+  <si>
+    <t>en 54</t>
+  </si>
+  <si>
+    <t>en 55</t>
+  </si>
+  <si>
+    <t>en 56</t>
+  </si>
+  <si>
+    <t>en 57</t>
+  </si>
+  <si>
+    <t>en 58</t>
+  </si>
+  <si>
+    <t>en 59</t>
+  </si>
+  <si>
+    <t>en 60</t>
+  </si>
+  <si>
+    <t>en 61</t>
+  </si>
+  <si>
+    <t>en 62</t>
+  </si>
+  <si>
+    <t>en 63</t>
+  </si>
+  <si>
+    <t>en 64</t>
+  </si>
+  <si>
+    <t>en 65</t>
+  </si>
+  <si>
+    <t>en 66</t>
+  </si>
+  <si>
+    <t>en 67</t>
+  </si>
+  <si>
+    <t>en 68</t>
+  </si>
+  <si>
+    <t>en 69</t>
+  </si>
+  <si>
+    <t>en 70</t>
+  </si>
+  <si>
+    <t>en 71</t>
+  </si>
+  <si>
+    <t>en 72</t>
+  </si>
+  <si>
+    <t>en 73</t>
+  </si>
+  <si>
+    <t>en 74</t>
+  </si>
+  <si>
+    <t>en 75</t>
+  </si>
+  <si>
+    <t>en 76</t>
+  </si>
+  <si>
+    <t>en 77</t>
+  </si>
+  <si>
+    <t>en 78</t>
+  </si>
+  <si>
+    <t>en 79</t>
+  </si>
+  <si>
+    <t>en 80</t>
+  </si>
+  <si>
+    <t>en 81</t>
+  </si>
+  <si>
+    <t>en 82</t>
+  </si>
+  <si>
+    <t>en 83</t>
+  </si>
+  <si>
+    <t>en 84</t>
+  </si>
+  <si>
+    <t>en 85</t>
+  </si>
+  <si>
+    <t>en 86</t>
+  </si>
+  <si>
+    <t>en 87</t>
+  </si>
+  <si>
+    <t>en 88</t>
+  </si>
+  <si>
+    <t>en 89</t>
+  </si>
+  <si>
+    <t>en 90</t>
+  </si>
+  <si>
+    <t>en 91</t>
+  </si>
+  <si>
+    <t>en 92</t>
+  </si>
+  <si>
+    <t>en 93</t>
+  </si>
+  <si>
+    <t>en 94</t>
+  </si>
+  <si>
+    <t>en 95</t>
+  </si>
+  <si>
+    <t>en 96</t>
+  </si>
+  <si>
+    <t>en 97</t>
+  </si>
+  <si>
+    <t>en 98</t>
+  </si>
+  <si>
+    <t>en 99</t>
+  </si>
+  <si>
+    <t>en 100</t>
+  </si>
+  <si>
+    <t>en 101</t>
+  </si>
+  <si>
+    <t>en 102</t>
+  </si>
+  <si>
+    <t>en 103</t>
+  </si>
+  <si>
+    <t>en 104</t>
+  </si>
+  <si>
+    <t>en 105</t>
+  </si>
+  <si>
+    <t>en 106</t>
+  </si>
+  <si>
+    <t>en 107</t>
+  </si>
+  <si>
+    <t>en 108</t>
+  </si>
+  <si>
+    <t>en 109</t>
+  </si>
+  <si>
+    <t>en 110</t>
+  </si>
+  <si>
+    <t>en 111</t>
+  </si>
+  <si>
+    <t>en 112</t>
+  </si>
+  <si>
+    <t>en 113</t>
+  </si>
+  <si>
+    <t>en 114</t>
+  </si>
+  <si>
+    <t>en 115</t>
+  </si>
+  <si>
+    <t>en 116</t>
+  </si>
+  <si>
+    <t>en 117</t>
+  </si>
+  <si>
+    <t>en 118</t>
+  </si>
+  <si>
+    <t>en 119</t>
+  </si>
+  <si>
+    <t>en 120</t>
+  </si>
+  <si>
+    <t>en 121</t>
+  </si>
+  <si>
+    <t>en 122</t>
+  </si>
+  <si>
+    <t>en 123</t>
+  </si>
+  <si>
+    <t>en 124</t>
+  </si>
+  <si>
+    <t>en 125</t>
+  </si>
+  <si>
+    <t>en 126</t>
+  </si>
+  <si>
+    <t>en 127</t>
+  </si>
+  <si>
+    <t>en 128</t>
+  </si>
+  <si>
+    <t>en 129</t>
+  </si>
+  <si>
+    <t>en 130</t>
+  </si>
+  <si>
+    <t>en 131</t>
+  </si>
+  <si>
+    <t>en 132</t>
+  </si>
+  <si>
+    <t>en 133</t>
+  </si>
+  <si>
+    <t>en 134</t>
+  </si>
+  <si>
+    <t>en 135</t>
+  </si>
+  <si>
+    <t>en 136</t>
+  </si>
+  <si>
+    <t>en 137</t>
+  </si>
+  <si>
+    <t>en 138</t>
+  </si>
+  <si>
+    <t>en 139</t>
+  </si>
+  <si>
+    <t>en 140</t>
+  </si>
+  <si>
+    <t>en 141</t>
+  </si>
+  <si>
+    <t>en 142</t>
+  </si>
+  <si>
+    <t>en 143</t>
+  </si>
+  <si>
+    <t>en 144</t>
+  </si>
+  <si>
+    <t>en 145</t>
+  </si>
+  <si>
+    <t>en 146</t>
+  </si>
+  <si>
+    <t>en 147</t>
+  </si>
+  <si>
+    <t>en 148</t>
+  </si>
+  <si>
+    <t>en 149</t>
   </si>
 </sst>
 </file>
@@ -1951,10 +2403,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CB6AF96-1BBB-40CA-B5E6-6C0144248FD4}">
-  <dimension ref="A1:E151"/>
+  <dimension ref="A1:F151"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C143" sqref="C143"/>
+    <sheetView tabSelected="1" topLeftCell="A140" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9:F150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1963,10 +2415,10 @@
     <col min="2" max="2" width="8.75" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.625" customWidth="1"/>
     <col min="4" max="4" width="7.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="223.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="118.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1982,8 +2434,11 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="27" x14ac:dyDescent="0.3">
+      <c r="F1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="27" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1999,8 +2454,11 @@
       <c r="E2" s="2" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="27" x14ac:dyDescent="0.3">
+      <c r="F2" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="27" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2016,8 +2474,11 @@
       <c r="E3" s="2" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" ht="27" x14ac:dyDescent="0.3">
+      <c r="F3" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="27" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2033,8 +2494,11 @@
       <c r="E4" s="2" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" ht="27" x14ac:dyDescent="0.3">
+      <c r="F4" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="27" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2050,8 +2514,11 @@
       <c r="E5" s="2" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" ht="27" x14ac:dyDescent="0.3">
+      <c r="F5" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="27" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2067,8 +2534,11 @@
       <c r="E6" s="2" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" ht="27" x14ac:dyDescent="0.3">
+      <c r="F6" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="27" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2084,8 +2554,11 @@
       <c r="E7" s="2" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" ht="27" x14ac:dyDescent="0.3">
+      <c r="F7" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="27" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -2101,8 +2574,11 @@
       <c r="E8" s="2" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" ht="27" x14ac:dyDescent="0.3">
+      <c r="F8" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="27" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2118,8 +2594,11 @@
       <c r="E9" s="2" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" ht="27" x14ac:dyDescent="0.3">
+      <c r="F9" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="40.5" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -2135,8 +2614,11 @@
       <c r="E10" s="2" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" ht="27" x14ac:dyDescent="0.3">
+      <c r="F10" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="27" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -2152,8 +2634,11 @@
       <c r="E11" s="2" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" ht="27" x14ac:dyDescent="0.3">
+      <c r="F11" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="27" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -2169,8 +2654,11 @@
       <c r="E12" s="2" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" ht="27" x14ac:dyDescent="0.3">
+      <c r="F12" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="27" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -2186,8 +2674,11 @@
       <c r="E13" s="2" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" ht="27" x14ac:dyDescent="0.3">
+      <c r="F13" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="27" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -2203,8 +2694,11 @@
       <c r="E14" s="2" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" ht="27" x14ac:dyDescent="0.3">
+      <c r="F14" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="27" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -2220,8 +2714,11 @@
       <c r="E15" s="2" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" ht="27" x14ac:dyDescent="0.3">
+      <c r="F15" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="27" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -2237,8 +2734,11 @@
       <c r="E16" s="2" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" ht="40.5" x14ac:dyDescent="0.3">
+      <c r="F16" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="54" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -2254,8 +2754,11 @@
       <c r="E17" s="2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" ht="40.5" x14ac:dyDescent="0.3">
+      <c r="F17" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="54" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -2271,8 +2774,11 @@
       <c r="E18" s="2" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" ht="27" x14ac:dyDescent="0.3">
+      <c r="F18" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="27" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -2288,8 +2794,11 @@
       <c r="E19" s="2" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" ht="40.5" x14ac:dyDescent="0.3">
+      <c r="F19" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="54" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
@@ -2305,8 +2814,11 @@
       <c r="E20" s="2" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" ht="27" x14ac:dyDescent="0.3">
+      <c r="F20" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="27" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
@@ -2322,8 +2834,11 @@
       <c r="E21" s="2" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" ht="27" x14ac:dyDescent="0.3">
+      <c r="F21" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="27" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
@@ -2339,8 +2854,11 @@
       <c r="E22" s="2" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" ht="27" x14ac:dyDescent="0.3">
+      <c r="F22" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="27" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
@@ -2356,8 +2874,11 @@
       <c r="E23" s="2" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" ht="27" x14ac:dyDescent="0.3">
+      <c r="F23" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="40.5" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
@@ -2373,8 +2894,11 @@
       <c r="E24" s="2" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" ht="27" x14ac:dyDescent="0.3">
+      <c r="F24" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="27" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
@@ -2390,8 +2914,11 @@
       <c r="E25" s="2" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" ht="27" x14ac:dyDescent="0.3">
+      <c r="F25" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="27" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
@@ -2407,8 +2934,11 @@
       <c r="E26" s="2" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" ht="27" x14ac:dyDescent="0.3">
+      <c r="F26" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="27" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
@@ -2424,8 +2954,11 @@
       <c r="E27" s="2" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" ht="27" x14ac:dyDescent="0.3">
+      <c r="F27" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="27" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>27</v>
       </c>
@@ -2441,8 +2974,11 @@
       <c r="E28" s="2" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" ht="27" x14ac:dyDescent="0.3">
+      <c r="F28" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="27" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>28</v>
       </c>
@@ -2458,8 +2994,11 @@
       <c r="E29" s="2" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" ht="27" x14ac:dyDescent="0.3">
+      <c r="F29" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="27" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>29</v>
       </c>
@@ -2475,8 +3014,11 @@
       <c r="E30" s="2" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" ht="27" x14ac:dyDescent="0.3">
+      <c r="F30" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="27" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>30</v>
       </c>
@@ -2492,8 +3034,11 @@
       <c r="E31" s="2" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" ht="27" x14ac:dyDescent="0.3">
+      <c r="F31" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="27" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>31</v>
       </c>
@@ -2509,8 +3054,11 @@
       <c r="E32" s="2" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" ht="27" x14ac:dyDescent="0.3">
+      <c r="F32" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="27" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>32</v>
       </c>
@@ -2526,8 +3074,11 @@
       <c r="E33" s="2" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" ht="27" x14ac:dyDescent="0.3">
+      <c r="F33" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="27" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>33</v>
       </c>
@@ -2543,8 +3094,11 @@
       <c r="E34" s="2" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" ht="27" x14ac:dyDescent="0.3">
+      <c r="F34" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="27" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>34</v>
       </c>
@@ -2560,8 +3114,11 @@
       <c r="E35" s="2" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" ht="27" x14ac:dyDescent="0.3">
+      <c r="F35" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="27" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>35</v>
       </c>
@@ -2577,8 +3134,11 @@
       <c r="E36" s="2" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" ht="27" x14ac:dyDescent="0.3">
+      <c r="F36" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="27" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>36</v>
       </c>
@@ -2594,8 +3154,11 @@
       <c r="E37" s="2" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" ht="27" x14ac:dyDescent="0.3">
+      <c r="F37" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="27" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>37</v>
       </c>
@@ -2611,8 +3174,11 @@
       <c r="E38" s="2" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" ht="27" x14ac:dyDescent="0.3">
+      <c r="F38" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="27" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>38</v>
       </c>
@@ -2628,8 +3194,11 @@
       <c r="E39" s="2" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" ht="27" x14ac:dyDescent="0.3">
+      <c r="F39" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="27" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>39</v>
       </c>
@@ -2645,8 +3214,11 @@
       <c r="E40" s="2" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" ht="27" x14ac:dyDescent="0.3">
+      <c r="F40" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="27" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>40</v>
       </c>
@@ -2662,8 +3234,11 @@
       <c r="E41" s="2" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" ht="27" x14ac:dyDescent="0.3">
+      <c r="F41" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="27" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>41</v>
       </c>
@@ -2679,8 +3254,11 @@
       <c r="E42" s="2" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" ht="27" x14ac:dyDescent="0.3">
+      <c r="F42" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="27" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>42</v>
       </c>
@@ -2696,8 +3274,11 @@
       <c r="E43" s="2" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" ht="27" x14ac:dyDescent="0.3">
+      <c r="F43" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="40.5" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>43</v>
       </c>
@@ -2713,8 +3294,11 @@
       <c r="E44" s="2" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F44" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="27" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>44</v>
       </c>
@@ -2730,8 +3314,11 @@
       <c r="E45" s="1" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" ht="54" x14ac:dyDescent="0.3">
+      <c r="F45" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="54" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>45</v>
       </c>
@@ -2747,8 +3334,11 @@
       <c r="E46" s="2" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" ht="40.5" x14ac:dyDescent="0.3">
+      <c r="F46" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="54" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>46</v>
       </c>
@@ -2764,8 +3354,11 @@
       <c r="E47" s="2" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F47" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>47</v>
       </c>
@@ -2781,8 +3374,11 @@
       <c r="E48" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F48" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>48</v>
       </c>
@@ -2798,8 +3394,11 @@
       <c r="E49" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F49" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>49</v>
       </c>
@@ -2815,8 +3414,11 @@
       <c r="E50" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F50" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>50</v>
       </c>
@@ -2832,8 +3434,11 @@
       <c r="E51" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F51" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>51</v>
       </c>
@@ -2849,8 +3454,11 @@
       <c r="E52" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F52" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>52</v>
       </c>
@@ -2866,8 +3474,11 @@
       <c r="E53" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F53" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>53</v>
       </c>
@@ -2883,8 +3494,11 @@
       <c r="E54" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F54" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>54</v>
       </c>
@@ -2900,8 +3514,11 @@
       <c r="E55" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F55" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>55</v>
       </c>
@@ -2917,8 +3534,11 @@
       <c r="E56" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F56" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>56</v>
       </c>
@@ -2934,8 +3554,11 @@
       <c r="E57" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F57" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" ht="27.75" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>57</v>
       </c>
@@ -2951,8 +3574,11 @@
       <c r="E58" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F58" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>58</v>
       </c>
@@ -2968,8 +3594,11 @@
       <c r="E59" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F59" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>59</v>
       </c>
@@ -2985,8 +3614,11 @@
       <c r="E60" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F60" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>60</v>
       </c>
@@ -3002,8 +3634,11 @@
       <c r="E61" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F61" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>61</v>
       </c>
@@ -3019,8 +3654,11 @@
       <c r="E62" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F62" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>62</v>
       </c>
@@ -3036,8 +3674,11 @@
       <c r="E63" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F63" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>63</v>
       </c>
@@ -3053,8 +3694,11 @@
       <c r="E64" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F64" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>64</v>
       </c>
@@ -3070,8 +3714,11 @@
       <c r="E65" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F65" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>65</v>
       </c>
@@ -3087,8 +3734,11 @@
       <c r="E66" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F66" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>66</v>
       </c>
@@ -3104,8 +3754,11 @@
       <c r="E67" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F67" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>67</v>
       </c>
@@ -3121,8 +3774,11 @@
       <c r="E68" s="1" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F68" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>68</v>
       </c>
@@ -3138,8 +3794,11 @@
       <c r="E69" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F69" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>69</v>
       </c>
@@ -3155,8 +3814,11 @@
       <c r="E70" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F70" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>70</v>
       </c>
@@ -3172,8 +3834,11 @@
       <c r="E71" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F71" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>71</v>
       </c>
@@ -3189,8 +3854,11 @@
       <c r="E72" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F72" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>72</v>
       </c>
@@ -3206,8 +3874,11 @@
       <c r="E73" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F73" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>73</v>
       </c>
@@ -3223,8 +3894,11 @@
       <c r="E74" s="1" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F74" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>74</v>
       </c>
@@ -3240,8 +3914,11 @@
       <c r="E75" s="1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F75" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>75</v>
       </c>
@@ -3257,8 +3934,11 @@
       <c r="E76" s="1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F76" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>76</v>
       </c>
@@ -3274,8 +3954,11 @@
       <c r="E77" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F77" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>77</v>
       </c>
@@ -3291,8 +3974,11 @@
       <c r="E78" s="1" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F78" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>78</v>
       </c>
@@ -3308,8 +3994,11 @@
       <c r="E79" s="1" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F79" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>79</v>
       </c>
@@ -3325,8 +4014,11 @@
       <c r="E80" s="1" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F80" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>80</v>
       </c>
@@ -3342,8 +4034,11 @@
       <c r="E81" s="1" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F81" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>81</v>
       </c>
@@ -3359,8 +4054,11 @@
       <c r="E82" s="1" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F82" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>82</v>
       </c>
@@ -3376,8 +4074,11 @@
       <c r="E83" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F83" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>83</v>
       </c>
@@ -3393,8 +4094,11 @@
       <c r="E84" s="1" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F84" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>84</v>
       </c>
@@ -3410,8 +4114,11 @@
       <c r="E85" s="1" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F85" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>85</v>
       </c>
@@ -3427,8 +4134,11 @@
       <c r="E86" s="1" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F86" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>86</v>
       </c>
@@ -3444,8 +4154,11 @@
       <c r="E87" s="1" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="88" spans="1:5" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="F87" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" ht="66" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>87</v>
       </c>
@@ -3461,8 +4174,11 @@
       <c r="E88" s="3" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="89" spans="1:5" ht="33" x14ac:dyDescent="0.3">
+      <c r="F88" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>88</v>
       </c>
@@ -3478,8 +4194,11 @@
       <c r="E89" s="4" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="90" spans="1:5" ht="33" x14ac:dyDescent="0.3">
+      <c r="F89" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>89</v>
       </c>
@@ -3495,8 +4214,11 @@
       <c r="E90" s="4" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="91" spans="1:5" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="F90" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>90</v>
       </c>
@@ -3512,8 +4234,11 @@
       <c r="E91" s="4" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="92" spans="1:5" ht="33" x14ac:dyDescent="0.3">
+      <c r="F91" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>91</v>
       </c>
@@ -3529,8 +4254,11 @@
       <c r="E92" s="4" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="93" spans="1:5" ht="33" x14ac:dyDescent="0.3">
+      <c r="F92" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>92</v>
       </c>
@@ -3546,8 +4274,11 @@
       <c r="E93" s="4" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="94" spans="1:5" ht="33" x14ac:dyDescent="0.3">
+      <c r="F93" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>93</v>
       </c>
@@ -3563,8 +4294,11 @@
       <c r="E94" s="4" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="95" spans="1:5" ht="33" x14ac:dyDescent="0.3">
+      <c r="F94" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>94</v>
       </c>
@@ -3580,8 +4314,11 @@
       <c r="E95" s="4" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="96" spans="1:5" ht="33" x14ac:dyDescent="0.3">
+      <c r="F95" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>95</v>
       </c>
@@ -3597,8 +4334,11 @@
       <c r="E96" s="4" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="97" spans="1:5" ht="33" x14ac:dyDescent="0.3">
+      <c r="F96" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>96</v>
       </c>
@@ -3614,8 +4354,11 @@
       <c r="E97" s="4" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="98" spans="1:5" ht="33" x14ac:dyDescent="0.3">
+      <c r="F97" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>97</v>
       </c>
@@ -3631,8 +4374,11 @@
       <c r="E98" s="4" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="99" spans="1:5" ht="33" x14ac:dyDescent="0.3">
+      <c r="F98" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>98</v>
       </c>
@@ -3648,8 +4394,11 @@
       <c r="E99" s="4" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="100" spans="1:5" ht="33" x14ac:dyDescent="0.3">
+      <c r="F99" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>99</v>
       </c>
@@ -3665,8 +4414,11 @@
       <c r="E100" s="4" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="101" spans="1:5" ht="33" x14ac:dyDescent="0.3">
+      <c r="F100" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>100</v>
       </c>
@@ -3682,8 +4434,11 @@
       <c r="E101" s="4" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="102" spans="1:5" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="F101" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>101</v>
       </c>
@@ -3699,8 +4454,11 @@
       <c r="E102" s="4" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="103" spans="1:5" ht="33" x14ac:dyDescent="0.3">
+      <c r="F102" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>102</v>
       </c>
@@ -3716,8 +4474,11 @@
       <c r="E103" s="4" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="104" spans="1:5" ht="33" x14ac:dyDescent="0.3">
+      <c r="F103" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>103</v>
       </c>
@@ -3733,8 +4494,11 @@
       <c r="E104" s="4" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="105" spans="1:5" ht="33" x14ac:dyDescent="0.3">
+      <c r="F104" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>104</v>
       </c>
@@ -3750,8 +4514,11 @@
       <c r="E105" s="4" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="106" spans="1:5" ht="33" x14ac:dyDescent="0.3">
+      <c r="F105" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>105</v>
       </c>
@@ -3767,8 +4534,11 @@
       <c r="E106" s="4" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="107" spans="1:5" ht="33" x14ac:dyDescent="0.3">
+      <c r="F106" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>106</v>
       </c>
@@ -3784,8 +4554,11 @@
       <c r="E107" s="4" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="108" spans="1:5" ht="27" x14ac:dyDescent="0.3">
+      <c r="F107" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" ht="27" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>107</v>
       </c>
@@ -3801,8 +4574,11 @@
       <c r="E108" s="2" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="109" spans="1:5" ht="33" x14ac:dyDescent="0.3">
+      <c r="F108" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>108</v>
       </c>
@@ -3818,8 +4594,11 @@
       <c r="E109" s="4" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="110" spans="1:5" ht="33" x14ac:dyDescent="0.3">
+      <c r="F109" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>109</v>
       </c>
@@ -3835,8 +4614,11 @@
       <c r="E110" s="4" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="111" spans="1:5" ht="27" x14ac:dyDescent="0.3">
+      <c r="F110" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" ht="27" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>110</v>
       </c>
@@ -3852,8 +4634,11 @@
       <c r="E111" s="2" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="112" spans="1:5" ht="33" x14ac:dyDescent="0.3">
+      <c r="F111" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>111</v>
       </c>
@@ -3869,8 +4654,11 @@
       <c r="E112" s="4" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="113" spans="1:5" ht="33" x14ac:dyDescent="0.3">
+      <c r="F112" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>112</v>
       </c>
@@ -3886,8 +4674,11 @@
       <c r="E113" s="4" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="114" spans="1:5" ht="33" x14ac:dyDescent="0.3">
+      <c r="F113" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>113</v>
       </c>
@@ -3903,8 +4694,11 @@
       <c r="E114" s="4" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="115" spans="1:5" ht="33" x14ac:dyDescent="0.3">
+      <c r="F114" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>114</v>
       </c>
@@ -3920,8 +4714,11 @@
       <c r="E115" s="4" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="116" spans="1:5" ht="33" x14ac:dyDescent="0.3">
+      <c r="F115" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>115</v>
       </c>
@@ -3937,8 +4734,11 @@
       <c r="E116" s="4" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="117" spans="1:5" ht="33" x14ac:dyDescent="0.3">
+      <c r="F116" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>116</v>
       </c>
@@ -3954,8 +4754,11 @@
       <c r="E117" s="4" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="118" spans="1:5" ht="33" x14ac:dyDescent="0.3">
+      <c r="F117" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>117</v>
       </c>
@@ -3971,8 +4774,11 @@
       <c r="E118" s="4" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="119" spans="1:5" ht="33" x14ac:dyDescent="0.3">
+      <c r="F118" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>118</v>
       </c>
@@ -3988,8 +4794,11 @@
       <c r="E119" s="4" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="120" spans="1:5" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="F119" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>119</v>
       </c>
@@ -4005,8 +4814,11 @@
       <c r="E120" s="4" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="121" spans="1:5" ht="66" x14ac:dyDescent="0.3">
+      <c r="F120" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>120</v>
       </c>
@@ -4022,8 +4834,11 @@
       <c r="E121" s="4" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="122" spans="1:5" ht="66" x14ac:dyDescent="0.3">
+      <c r="F121" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>121</v>
       </c>
@@ -4039,8 +4854,11 @@
       <c r="E122" s="3" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="123" spans="1:5" ht="33" x14ac:dyDescent="0.3">
+      <c r="F122" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>122</v>
       </c>
@@ -4056,8 +4874,11 @@
       <c r="E123" s="4" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="124" spans="1:5" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="F123" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>123</v>
       </c>
@@ -4073,8 +4894,11 @@
       <c r="E124" s="4" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="125" spans="1:5" ht="33" x14ac:dyDescent="0.3">
+      <c r="F124" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>124</v>
       </c>
@@ -4090,8 +4914,11 @@
       <c r="E125" s="4" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="126" spans="1:5" ht="33" x14ac:dyDescent="0.3">
+      <c r="F125" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>125</v>
       </c>
@@ -4107,8 +4934,11 @@
       <c r="E126" s="4" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="127" spans="1:5" ht="33" x14ac:dyDescent="0.3">
+      <c r="F126" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>126</v>
       </c>
@@ -4124,8 +4954,11 @@
       <c r="E127" s="4" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="128" spans="1:5" ht="33" x14ac:dyDescent="0.3">
+      <c r="F127" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>127</v>
       </c>
@@ -4141,8 +4974,11 @@
       <c r="E128" s="5" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="129" spans="1:5" ht="33" x14ac:dyDescent="0.3">
+      <c r="F128" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>128</v>
       </c>
@@ -4158,8 +4994,11 @@
       <c r="E129" s="5" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="130" spans="1:5" ht="33" x14ac:dyDescent="0.3">
+      <c r="F129" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>129</v>
       </c>
@@ -4175,8 +5014,11 @@
       <c r="E130" s="5" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="131" spans="1:5" ht="33" x14ac:dyDescent="0.3">
+      <c r="F130" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>130</v>
       </c>
@@ -4192,8 +5034,11 @@
       <c r="E131" s="5" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="132" spans="1:5" ht="33" x14ac:dyDescent="0.3">
+      <c r="F131" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>131</v>
       </c>
@@ -4209,8 +5054,11 @@
       <c r="E132" s="5" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="133" spans="1:5" ht="33" x14ac:dyDescent="0.3">
+      <c r="F132" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>132</v>
       </c>
@@ -4226,8 +5074,11 @@
       <c r="E133" s="5" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="134" spans="1:5" ht="33" x14ac:dyDescent="0.3">
+      <c r="F133" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>133</v>
       </c>
@@ -4243,8 +5094,11 @@
       <c r="E134" s="5" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="135" spans="1:5" ht="33" x14ac:dyDescent="0.3">
+      <c r="F134" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>134</v>
       </c>
@@ -4260,8 +5114,11 @@
       <c r="E135" s="5" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="136" spans="1:5" ht="33" x14ac:dyDescent="0.3">
+      <c r="F135" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>135</v>
       </c>
@@ -4277,8 +5134,11 @@
       <c r="E136" s="5" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="137" spans="1:5" ht="33" x14ac:dyDescent="0.3">
+      <c r="F136" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>136</v>
       </c>
@@ -4294,8 +5154,11 @@
       <c r="E137" s="5" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="138" spans="1:5" ht="33" x14ac:dyDescent="0.3">
+      <c r="F137" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>137</v>
       </c>
@@ -4311,8 +5174,11 @@
       <c r="E138" s="5" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="139" spans="1:5" ht="33" x14ac:dyDescent="0.3">
+      <c r="F138" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>138</v>
       </c>
@@ -4328,8 +5194,11 @@
       <c r="E139" s="4" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="140" spans="1:5" ht="33" x14ac:dyDescent="0.3">
+      <c r="F139" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>139</v>
       </c>
@@ -4345,8 +5214,11 @@
       <c r="E140" s="5" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="141" spans="1:5" ht="33" x14ac:dyDescent="0.3">
+      <c r="F140" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>140</v>
       </c>
@@ -4362,8 +5234,11 @@
       <c r="E141" s="5" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="142" spans="1:5" ht="27" x14ac:dyDescent="0.3">
+      <c r="F141" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" ht="27" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>141</v>
       </c>
@@ -4379,8 +5254,11 @@
       <c r="E142" s="2" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="143" spans="1:5" ht="33" x14ac:dyDescent="0.3">
+      <c r="F142" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>142</v>
       </c>
@@ -4396,8 +5274,11 @@
       <c r="E143" s="5" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="144" spans="1:5" ht="33" x14ac:dyDescent="0.3">
+      <c r="F143" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>143</v>
       </c>
@@ -4413,8 +5294,11 @@
       <c r="E144" s="5" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="145" spans="1:5" ht="27" x14ac:dyDescent="0.3">
+      <c r="F144" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" ht="27" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>144</v>
       </c>
@@ -4430,8 +5314,11 @@
       <c r="E145" s="2" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="146" spans="1:5" ht="33" x14ac:dyDescent="0.3">
+      <c r="F145" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>145</v>
       </c>
@@ -4447,8 +5334,11 @@
       <c r="E146" s="5" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F146" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>146</v>
       </c>
@@ -4464,8 +5354,11 @@
       <c r="E147" s="4" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="148" spans="1:5" ht="66" x14ac:dyDescent="0.3">
+      <c r="F147" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" ht="66" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>147</v>
       </c>
@@ -4481,8 +5374,11 @@
       <c r="E148" s="4" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F148" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" ht="33" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>148</v>
       </c>
@@ -4498,8 +5394,11 @@
       <c r="E149" s="4" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="150" spans="1:5" ht="66" x14ac:dyDescent="0.3">
+      <c r="F149" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>149</v>
       </c>
@@ -4515,8 +5414,11 @@
       <c r="E150" s="4" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F150" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>5</v>
       </c>
@@ -4531,8 +5433,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E3678CA-3602-494A-BDA8-D0DC73F7A4F8}">
   <dimension ref="A1:G150"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4544,6 +5446,7 @@
     <col min="5" max="5" width="7.875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="223.875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">

--- a/CHATGAME/Assets/StreamingAssets/Excel/dialogue.xlsx
+++ b/CHATGAME/Assets/StreamingAssets/Excel/dialogue.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/99ccd577c8ac53ff/문서/GitHub/AI-CHATBOT-GAME/CHATGAME/Assets/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BF043A97-41CD-4FDE-B5E6-02BD9BB11E79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{74BDBC8A-D6FA-47F4-AE4E-4AC66D167EFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="25490" yWindow="-110" windowWidth="25820" windowHeight="13900" activeTab="1" xr2:uid="{2CE2283B-12A8-44FA-8C37-8BC2013A442E}"/>
   </bookViews>
@@ -11123,8 +11123,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>5_3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>5_2</t>
   </si>
   <si>
     <t>"명작이 아니라도, 가끔은 이런 영화도 나쁘지 않네."
@@ -12847,7 +12846,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CB6AF96-1BBB-40CA-B5E6-6C0144248FD4}">
   <dimension ref="A1:H155"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
+    <sheetView topLeftCell="A138" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D153" sqref="D153"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="15.95"/>
   <cols>
@@ -13029,7 +13030,7 @@
         <v>8</v>
       </c>
       <c r="D7" s="10">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>29</v>
@@ -13497,7 +13498,7 @@
         <v>8</v>
       </c>
       <c r="D25" s="10">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>102</v>
@@ -13523,7 +13524,7 @@
         <v>8</v>
       </c>
       <c r="D26" s="10">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>106</v>
@@ -13549,7 +13550,7 @@
         <v>8</v>
       </c>
       <c r="D27" s="10">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>110</v>
@@ -13575,7 +13576,7 @@
         <v>8</v>
       </c>
       <c r="D28" s="10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>114</v>
@@ -13601,7 +13602,7 @@
         <v>8</v>
       </c>
       <c r="D29" s="10">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>118</v>
@@ -13627,7 +13628,7 @@
         <v>8</v>
       </c>
       <c r="D30" s="10">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>122</v>
@@ -13653,7 +13654,7 @@
         <v>8</v>
       </c>
       <c r="D31" s="10">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>126</v>
@@ -13679,7 +13680,7 @@
         <v>8</v>
       </c>
       <c r="D32" s="10">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>130</v>
@@ -13705,7 +13706,7 @@
         <v>8</v>
       </c>
       <c r="D33" s="10">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>134</v>
@@ -13731,7 +13732,7 @@
         <v>8</v>
       </c>
       <c r="D34" s="10">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>138</v>
@@ -13757,7 +13758,7 @@
         <v>8</v>
       </c>
       <c r="D35" s="10">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E35" s="1" t="s">
         <v>142</v>
@@ -13783,7 +13784,7 @@
         <v>8</v>
       </c>
       <c r="D36" s="10">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>146</v>
@@ -13809,7 +13810,7 @@
         <v>8</v>
       </c>
       <c r="D37" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>150</v>
@@ -13835,7 +13836,7 @@
         <v>8</v>
       </c>
       <c r="D38" s="10">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>154</v>
@@ -13861,7 +13862,7 @@
         <v>8</v>
       </c>
       <c r="D39" s="10">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E39" s="1" t="s">
         <v>158</v>
@@ -13887,7 +13888,7 @@
         <v>8</v>
       </c>
       <c r="D40" s="10">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>162</v>
@@ -13913,7 +13914,7 @@
         <v>8</v>
       </c>
       <c r="D41" s="10">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E41" s="1" t="s">
         <v>166</v>
@@ -13939,7 +13940,7 @@
         <v>8</v>
       </c>
       <c r="D42" s="10">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="E42" s="1" t="s">
         <v>170</v>
@@ -13965,7 +13966,7 @@
         <v>8</v>
       </c>
       <c r="D43" s="10">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E43" s="1" t="s">
         <v>174</v>
@@ -14043,7 +14044,7 @@
         <v>178</v>
       </c>
       <c r="D46" s="11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E46" s="12" t="s">
         <v>187</v>
@@ -15239,7 +15240,7 @@
         <v>8</v>
       </c>
       <c r="D92" s="10">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E92" s="12" t="s">
         <v>372</v>
@@ -15265,7 +15266,7 @@
         <v>8</v>
       </c>
       <c r="D93" s="10">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E93" s="12" t="s">
         <v>376</v>
@@ -15291,7 +15292,7 @@
         <v>8</v>
       </c>
       <c r="D94" s="10">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E94" s="12" t="s">
         <v>380</v>
@@ -15317,7 +15318,7 @@
         <v>8</v>
       </c>
       <c r="D95" s="10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E95" s="12" t="s">
         <v>384</v>
@@ -15343,7 +15344,7 @@
         <v>8</v>
       </c>
       <c r="D96" s="10">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E96" s="12" t="s">
         <v>388</v>
@@ -15369,7 +15370,7 @@
         <v>8</v>
       </c>
       <c r="D97" s="10">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E97" s="12" t="s">
         <v>392</v>
@@ -15395,7 +15396,7 @@
         <v>8</v>
       </c>
       <c r="D98" s="10">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E98" s="12" t="s">
         <v>396</v>
@@ -15421,7 +15422,7 @@
         <v>8</v>
       </c>
       <c r="D99" s="10">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E99" s="12" t="s">
         <v>400</v>
@@ -15447,7 +15448,7 @@
         <v>8</v>
       </c>
       <c r="D100" s="10">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E100" s="12" t="s">
         <v>404</v>
@@ -15473,7 +15474,7 @@
         <v>8</v>
       </c>
       <c r="D101" s="10">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E101" s="12" t="s">
         <v>408</v>
@@ -15499,7 +15500,7 @@
         <v>8</v>
       </c>
       <c r="D102" s="10">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E102" s="12" t="s">
         <v>412</v>
@@ -15525,7 +15526,7 @@
         <v>8</v>
       </c>
       <c r="D103" s="10">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E103" s="12" t="s">
         <v>416</v>
@@ -15551,7 +15552,7 @@
         <v>8</v>
       </c>
       <c r="D104" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E104" s="12" t="s">
         <v>420</v>
@@ -15577,7 +15578,7 @@
         <v>8</v>
       </c>
       <c r="D105" s="10">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E105" s="12" t="s">
         <v>424</v>
@@ -15603,7 +15604,7 @@
         <v>8</v>
       </c>
       <c r="D106" s="10">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E106" s="12" t="s">
         <v>428</v>
@@ -15629,7 +15630,7 @@
         <v>8</v>
       </c>
       <c r="D107" s="10">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E107" s="2" t="s">
         <v>432</v>
@@ -15655,7 +15656,7 @@
         <v>8</v>
       </c>
       <c r="D108" s="10">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E108" s="12" t="s">
         <v>436</v>
@@ -15681,7 +15682,7 @@
         <v>8</v>
       </c>
       <c r="D109" s="10">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="E109" s="12" t="s">
         <v>440</v>
@@ -15707,7 +15708,7 @@
         <v>8</v>
       </c>
       <c r="D110" s="10">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E110" s="2" t="s">
         <v>444</v>
@@ -15733,7 +15734,7 @@
         <v>8</v>
       </c>
       <c r="D111" s="10">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E111" s="12" t="s">
         <v>448</v>
@@ -16019,7 +16020,7 @@
         <v>33</v>
       </c>
       <c r="D122" s="10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E122" s="2" t="s">
         <v>493</v>
@@ -16045,7 +16046,7 @@
         <v>33</v>
       </c>
       <c r="D123" s="10">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E123" s="2" t="s">
         <v>497</v>
@@ -16071,7 +16072,7 @@
         <v>33</v>
       </c>
       <c r="D124" s="10">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E124" s="2" t="s">
         <v>501</v>
@@ -16227,7 +16228,7 @@
         <v>8</v>
       </c>
       <c r="D130" s="10">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E130" s="12" t="s">
         <v>525</v>
@@ -16253,7 +16254,7 @@
         <v>8</v>
       </c>
       <c r="D131" s="10">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E131" s="18" t="s">
         <v>529</v>
@@ -16279,7 +16280,7 @@
         <v>8</v>
       </c>
       <c r="D132" s="10">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E132" s="18" t="s">
         <v>533</v>
@@ -16305,7 +16306,7 @@
         <v>8</v>
       </c>
       <c r="D133" s="10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E133" s="18" t="s">
         <v>537</v>
@@ -16331,7 +16332,7 @@
         <v>8</v>
       </c>
       <c r="D134" s="10">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E134" s="18" t="s">
         <v>541</v>
@@ -16357,7 +16358,7 @@
         <v>8</v>
       </c>
       <c r="D135" s="10">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E135" s="18" t="s">
         <v>545</v>
@@ -16383,7 +16384,7 @@
         <v>8</v>
       </c>
       <c r="D136" s="10">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E136" s="18" t="s">
         <v>549</v>
@@ -16409,7 +16410,7 @@
         <v>8</v>
       </c>
       <c r="D137" s="10">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E137" s="18" t="s">
         <v>553</v>
@@ -16435,7 +16436,7 @@
         <v>8</v>
       </c>
       <c r="D138" s="10">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E138" s="18" t="s">
         <v>557</v>
@@ -16461,7 +16462,7 @@
         <v>8</v>
       </c>
       <c r="D139" s="10">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E139" s="18" t="s">
         <v>561</v>
@@ -16487,7 +16488,7 @@
         <v>8</v>
       </c>
       <c r="D140" s="10">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E140" s="18" t="s">
         <v>565</v>
@@ -16513,7 +16514,7 @@
         <v>8</v>
       </c>
       <c r="D141" s="10">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E141" s="18" t="s">
         <v>569</v>
@@ -16539,7 +16540,7 @@
         <v>8</v>
       </c>
       <c r="D142" s="10">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E142" s="12" t="s">
         <v>420</v>
@@ -16565,7 +16566,7 @@
         <v>8</v>
       </c>
       <c r="D143" s="10">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E143" s="18" t="s">
         <v>576</v>
@@ -16591,7 +16592,7 @@
         <v>8</v>
       </c>
       <c r="D144" s="10">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E144" s="18" t="s">
         <v>580</v>
@@ -16617,7 +16618,7 @@
         <v>8</v>
       </c>
       <c r="D145" s="10">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E145" s="1" t="s">
         <v>584</v>
@@ -16643,7 +16644,7 @@
         <v>8</v>
       </c>
       <c r="D146" s="10">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E146" s="18" t="s">
         <v>588</v>
@@ -16669,7 +16670,7 @@
         <v>8</v>
       </c>
       <c r="D147" s="10">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="E147" s="18" t="s">
         <v>592</v>
@@ -16695,7 +16696,7 @@
         <v>8</v>
       </c>
       <c r="D148" s="10">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E148" s="1" t="s">
         <v>596</v>
@@ -16721,7 +16722,7 @@
         <v>8</v>
       </c>
       <c r="D149" s="10">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E149" s="18" t="s">
         <v>600</v>
@@ -16799,7 +16800,7 @@
         <v>178</v>
       </c>
       <c r="D152" s="10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E152" s="12" t="s">
         <v>612</v>
@@ -16825,7 +16826,7 @@
         <v>178</v>
       </c>
       <c r="D153" s="10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E153" s="12" t="s">
         <v>616</v>
@@ -16851,7 +16852,7 @@
         <v>178</v>
       </c>
       <c r="D154" s="10">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E154" s="12" t="s">
         <v>620</v>
@@ -16886,8 +16887,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E3678CA-3602-494A-BDA8-D0DC73F7A4F8}">
   <dimension ref="A1:J150"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" customHeight="1"/>
